--- a/Data/Predictions/TrainingShip_manual_check.xlsx
+++ b/Data/Predictions/TrainingShip_manual_check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Dropbox\PhD\HISCO clean\Data\Predictions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38106D1F-4A1B-469E-8CA4-4DB8A5C65B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9B8906-4738-451D-8392-A58A430B37DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
@@ -5889,11 +5889,11 @@
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C2" s="5">
-        <f t="shared" ref="C2:D2" si="0">SUM(C5:C202)</f>
+        <f>SUM(C5:C202)</f>
         <v>162</v>
       </c>
       <c r="D2" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C2:D2" si="0">SUM(D5:D202)</f>
         <v>33</v>
       </c>
       <c r="E2" s="5">
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f>(G5=I5)+0</f>
+        <f t="shared" ref="C5:C36" si="1">(G5=I5)+0</f>
         <v>1</v>
       </c>
       <c r="D5">
@@ -6043,15 +6043,15 @@
         <v>1</v>
       </c>
       <c r="B6" t="b">
-        <f t="shared" ref="B6:B69" si="1">F6="en[SEP]"</f>
+        <f t="shared" ref="B6:B69" si="2">F6="en[SEP]"</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>(G6=I6)+0</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D69" si="2">1-(C6=A6)</f>
+        <f t="shared" ref="D6:D69" si="3">1-(C6=A6)</f>
         <v>0</v>
       </c>
       <c r="F6" t="s">
@@ -6081,15 +6081,15 @@
         <v>1</v>
       </c>
       <c r="B7" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C7">
-        <f>(G7=I7)+0</f>
-        <v>1</v>
-      </c>
       <c r="D7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" t="s">
@@ -6119,15 +6119,15 @@
         <v>1</v>
       </c>
       <c r="B8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <f>(G8=I8)+0</f>
         <v>1</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" t="s">
@@ -6166,15 +6166,15 @@
         <v>1</v>
       </c>
       <c r="B9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <f>(G9=I9)+0</f>
         <v>1</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" t="s">
@@ -6213,15 +6213,15 @@
         <v>1</v>
       </c>
       <c r="B10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C10">
-        <f>(G10=I10)+0</f>
-        <v>1</v>
-      </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" t="s">
@@ -6251,15 +6251,15 @@
         <v>1</v>
       </c>
       <c r="B11" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C11">
-        <f>(G11=I11)+0</f>
-        <v>0</v>
-      </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E11">
@@ -6295,15 +6295,15 @@
         <v>1</v>
       </c>
       <c r="B12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <f>(G12=I12)+0</f>
         <v>1</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" t="s">
@@ -6342,15 +6342,15 @@
         <v>1</v>
       </c>
       <c r="B13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C13">
-        <f>(G13=I13)+0</f>
-        <v>1</v>
-      </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" t="s">
@@ -6380,15 +6380,15 @@
         <v>1</v>
       </c>
       <c r="B14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C14">
-        <f>(G14=I14)+0</f>
-        <v>1</v>
-      </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" t="s">
@@ -6418,15 +6418,15 @@
         <v>1</v>
       </c>
       <c r="B15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C15">
-        <f>(G15=I15)+0</f>
-        <v>1</v>
-      </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" t="s">
@@ -6456,15 +6456,15 @@
         <v>1</v>
       </c>
       <c r="B16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C16">
-        <f>(G16=I16)+0</f>
-        <v>1</v>
-      </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" t="s">
@@ -6494,15 +6494,15 @@
         <v>1</v>
       </c>
       <c r="B17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <f>(G17=I17)+0</f>
         <v>1</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" t="s">
@@ -6541,15 +6541,15 @@
         <v>1</v>
       </c>
       <c r="B18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C18">
-        <f>(G18=I18)+0</f>
-        <v>0</v>
-      </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E18">
@@ -6585,15 +6585,15 @@
         <v>1</v>
       </c>
       <c r="B19" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <f>(G19=I19)+0</f>
         <v>1</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" t="s">
@@ -6632,15 +6632,15 @@
         <v>1</v>
       </c>
       <c r="B20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C20">
-        <f>(G20=I20)+0</f>
-        <v>1</v>
-      </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F20" t="s">
@@ -6670,15 +6670,15 @@
         <v>1</v>
       </c>
       <c r="B21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C21">
-        <f>(G21=I21)+0</f>
-        <v>1</v>
-      </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" t="s">
@@ -6708,15 +6708,15 @@
         <v>1</v>
       </c>
       <c r="B22" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f>(G22=I22)+0</f>
         <v>1</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F22" t="s">
@@ -6755,15 +6755,15 @@
         <v>1</v>
       </c>
       <c r="B23" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <f>(G23=I23)+0</f>
         <v>1</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" t="s">
@@ -6802,15 +6802,15 @@
         <v>1</v>
       </c>
       <c r="B24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C24">
-        <f>(G24=I24)+0</f>
-        <v>1</v>
-      </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F24" t="s">
@@ -6840,15 +6840,15 @@
         <v>1</v>
       </c>
       <c r="B25" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <f>(G25=I25)+0</f>
         <v>1</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F25" t="s">
@@ -6887,15 +6887,15 @@
         <v>1</v>
       </c>
       <c r="B26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C26">
-        <f>(G26=I26)+0</f>
-        <v>1</v>
-      </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F26" t="s">
@@ -6925,15 +6925,15 @@
         <v>1</v>
       </c>
       <c r="B27" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C27">
-        <f>(G27=I27)+0</f>
-        <v>0</v>
-      </c>
       <c r="D27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E27">
@@ -6975,15 +6975,15 @@
         <v>1</v>
       </c>
       <c r="B28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C28">
-        <f>(G28=I28)+0</f>
-        <v>1</v>
-      </c>
       <c r="D28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F28" t="s">
@@ -7013,15 +7013,15 @@
         <v>1</v>
       </c>
       <c r="B29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C29">
-        <f>(G29=I29)+0</f>
-        <v>1</v>
-      </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F29" t="s">
@@ -7051,15 +7051,15 @@
         <v>1</v>
       </c>
       <c r="B30" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <f>(G30=I30)+0</f>
         <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F30" t="s">
@@ -7098,15 +7098,15 @@
         <v>1</v>
       </c>
       <c r="B31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C31">
-        <f>(G31=I31)+0</f>
-        <v>1</v>
-      </c>
       <c r="D31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
@@ -7136,15 +7136,15 @@
         <v>1</v>
       </c>
       <c r="B32" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C32">
-        <f>(G32=I32)+0</f>
-        <v>0</v>
-      </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E32">
@@ -7186,11 +7186,11 @@
         <v>1</v>
       </c>
       <c r="B33" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <f>(G33=I33)+0</f>
         <v>1</v>
       </c>
       <c r="D33">
@@ -7224,15 +7224,15 @@
         <v>1</v>
       </c>
       <c r="B34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C34">
-        <f>(G34=I34)+0</f>
-        <v>1</v>
-      </c>
       <c r="D34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F34" t="s">
@@ -7262,15 +7262,15 @@
         <v>0</v>
       </c>
       <c r="B35" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="C35">
-        <f>(G35=I35)+0</f>
-        <v>0</v>
-      </c>
       <c r="D35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F35" t="s">
@@ -7309,15 +7309,15 @@
         <v>1</v>
       </c>
       <c r="B36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C36">
-        <f>(G36=I36)+0</f>
-        <v>1</v>
-      </c>
       <c r="D36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F36" t="s">
@@ -7347,15 +7347,15 @@
         <v>1</v>
       </c>
       <c r="B37" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C37">
-        <f>(G37=I37)+0</f>
+        <f t="shared" ref="C37:C68" si="4">(G37=I37)+0</f>
         <v>1</v>
       </c>
       <c r="D37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" t="s">
@@ -7385,15 +7385,15 @@
         <v>1</v>
       </c>
       <c r="B38" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C38">
-        <f>(G38=I38)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F38" t="s">
@@ -7423,15 +7423,15 @@
         <v>1</v>
       </c>
       <c r="B39" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C39">
-        <f>(G39=I39)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F39" t="s">
@@ -7470,15 +7470,15 @@
         <v>1</v>
       </c>
       <c r="B40" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C40">
-        <f>(G40=I40)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F40" t="s">
@@ -7508,15 +7508,15 @@
         <v>1</v>
       </c>
       <c r="B41" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C41">
-        <f>(G41=I41)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F41" t="s">
@@ -7555,15 +7555,15 @@
         <v>1</v>
       </c>
       <c r="B42" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C42">
-        <f>(G42=I42)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F42" t="s">
@@ -7593,15 +7593,15 @@
         <v>1</v>
       </c>
       <c r="B43" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C43">
-        <f>(G43=I43)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F43" t="s">
@@ -7631,15 +7631,15 @@
         <v>1</v>
       </c>
       <c r="B44" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C44">
-        <f>(G44=I44)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F44" t="s">
@@ -7669,15 +7669,15 @@
         <v>1</v>
       </c>
       <c r="B45" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C45">
-        <f>(G45=I45)+0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E45">
@@ -7719,15 +7719,15 @@
         <v>1</v>
       </c>
       <c r="B46" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C46">
-        <f>(G46=I46)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F46" t="s">
@@ -7757,15 +7757,15 @@
         <v>1</v>
       </c>
       <c r="B47" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C47">
-        <f>(G47=I47)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F47" t="s">
@@ -7795,15 +7795,15 @@
         <v>1</v>
       </c>
       <c r="B48" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C48">
-        <f>(G48=I48)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F48" t="s">
@@ -7833,15 +7833,15 @@
         <v>1</v>
       </c>
       <c r="B49" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C49">
-        <f>(G49=I49)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F49" t="s">
@@ -7871,15 +7871,15 @@
         <v>1</v>
       </c>
       <c r="B50" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C50">
-        <f>(G50=I50)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F50" t="s">
@@ -7909,15 +7909,15 @@
         <v>1</v>
       </c>
       <c r="B51" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C51">
-        <f>(G51=I51)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F51" t="s">
@@ -7947,15 +7947,15 @@
         <v>1</v>
       </c>
       <c r="B52" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C52">
-        <f>(G52=I52)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F52" t="s">
@@ -7985,15 +7985,15 @@
         <v>1</v>
       </c>
       <c r="B53" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C53">
-        <f>(G53=I53)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F53" t="s">
@@ -8023,15 +8023,15 @@
         <v>1</v>
       </c>
       <c r="B54" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C54">
-        <f>(G54=I54)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F54" t="s">
@@ -8061,15 +8061,15 @@
         <v>1</v>
       </c>
       <c r="B55" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C55">
-        <f>(G55=I55)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F55" t="s">
@@ -8099,15 +8099,15 @@
         <v>1</v>
       </c>
       <c r="B56" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C56">
-        <f>(G56=I56)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F56" t="s">
@@ -8137,15 +8137,15 @@
         <v>1</v>
       </c>
       <c r="B57" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C57">
-        <f>(G57=I57)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F57" t="s">
@@ -8175,15 +8175,15 @@
         <v>1</v>
       </c>
       <c r="B58" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C58">
-        <f>(G58=I58)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F58" t="s">
@@ -8222,15 +8222,15 @@
         <v>1</v>
       </c>
       <c r="B59" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C59">
-        <f>(G59=I59)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F59" t="s">
@@ -8260,15 +8260,15 @@
         <v>1</v>
       </c>
       <c r="B60" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C60">
-        <f>(G60=I60)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F60" t="s">
@@ -8298,15 +8298,15 @@
         <v>1</v>
       </c>
       <c r="B61" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C61">
-        <f>(G61=I61)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F61" t="s">
@@ -8345,15 +8345,15 @@
         <v>1</v>
       </c>
       <c r="B62" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C62">
-        <f>(G62=I62)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F62" t="s">
@@ -8392,15 +8392,15 @@
         <v>1</v>
       </c>
       <c r="B63" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C63">
-        <f>(G63=I63)+0</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E63">
@@ -8442,15 +8442,15 @@
         <v>1</v>
       </c>
       <c r="B64" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C64">
-        <f>(G64=I64)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F64" t="s">
@@ -8480,15 +8480,15 @@
         <v>1</v>
       </c>
       <c r="B65" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C65">
-        <f>(G65=I65)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F65" t="s">
@@ -8518,15 +8518,15 @@
         <v>1</v>
       </c>
       <c r="B66" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C66">
-        <f>(G66=I66)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F66" t="s">
@@ -8556,15 +8556,15 @@
         <v>1</v>
       </c>
       <c r="B67" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C67">
-        <f>(G67=I67)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F67" t="s">
@@ -8594,15 +8594,15 @@
         <v>1</v>
       </c>
       <c r="B68" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C68">
-        <f>(G68=I68)+0</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F68" t="s">
@@ -8641,15 +8641,15 @@
         <v>1</v>
       </c>
       <c r="B69" t="b">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C69">
-        <f>(G69=I69)+0</f>
+        <f t="shared" ref="C69:C100" si="5">(G69=I69)+0</f>
         <v>1</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F69" t="s">
@@ -8679,15 +8679,15 @@
         <v>1</v>
       </c>
       <c r="B70" t="b">
-        <f t="shared" ref="B70:B133" si="3">F70="en[SEP]"</f>
+        <f t="shared" ref="B70:B133" si="6">F70="en[SEP]"</f>
         <v>0</v>
       </c>
       <c r="C70">
-        <f>(G70=I70)+0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D133" si="4">1-(C70=A70)</f>
+        <f t="shared" ref="D70:D133" si="7">1-(C70=A70)</f>
         <v>1</v>
       </c>
       <c r="E70">
@@ -8729,15 +8729,15 @@
         <v>1</v>
       </c>
       <c r="B71" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C71">
-        <f>(G71=I71)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F71" t="s">
@@ -8767,15 +8767,15 @@
         <v>1</v>
       </c>
       <c r="B72" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C72">
-        <f>(G72=I72)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F72" t="s">
@@ -8805,15 +8805,15 @@
         <v>1</v>
       </c>
       <c r="B73" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C73">
-        <f>(G73=I73)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F73" t="s">
@@ -8843,15 +8843,15 @@
         <v>1</v>
       </c>
       <c r="B74" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C74">
-        <f>(G74=I74)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F74" t="s">
@@ -8881,15 +8881,15 @@
         <v>1</v>
       </c>
       <c r="B75" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C75">
-        <f>(G75=I75)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F75" t="s">
@@ -8919,15 +8919,15 @@
         <v>1</v>
       </c>
       <c r="B76" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C76">
-        <f>(G76=I76)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76" t="s">
@@ -8966,15 +8966,15 @@
         <v>1</v>
       </c>
       <c r="B77" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C77">
-        <f>(G77=I77)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F77" t="s">
@@ -9013,15 +9013,15 @@
         <v>1</v>
       </c>
       <c r="B78" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C78">
-        <f>(G78=I78)+0</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E78">
@@ -9063,15 +9063,15 @@
         <v>1</v>
       </c>
       <c r="B79" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C79">
-        <f>(G79=I79)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F79" t="s">
@@ -9101,15 +9101,15 @@
         <v>1</v>
       </c>
       <c r="B80" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C80">
-        <f>(G80=I80)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F80" t="s">
@@ -9148,15 +9148,15 @@
         <v>1</v>
       </c>
       <c r="B81" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C81">
-        <f>(G81=I81)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F81" t="s">
@@ -9186,15 +9186,15 @@
         <v>1</v>
       </c>
       <c r="B82" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C82">
-        <f>(G82=I82)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F82" t="s">
@@ -9224,15 +9224,15 @@
         <v>1</v>
       </c>
       <c r="B83" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C83">
-        <f>(G83=I83)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F83" t="s">
@@ -9271,15 +9271,15 @@
         <v>1</v>
       </c>
       <c r="B84" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C84">
-        <f>(G84=I84)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F84" t="s">
@@ -9318,15 +9318,15 @@
         <v>1</v>
       </c>
       <c r="B85" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C85">
-        <f>(G85=I85)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F85" t="s">
@@ -9356,15 +9356,15 @@
         <v>1</v>
       </c>
       <c r="B86" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C86">
-        <f>(G86=I86)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F86" t="s">
@@ -9394,15 +9394,15 @@
         <v>1</v>
       </c>
       <c r="B87" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C87">
-        <f>(G87=I87)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F87" t="s">
@@ -9432,15 +9432,15 @@
         <v>1</v>
       </c>
       <c r="B88" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C88">
-        <f>(G88=I88)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F88" t="s">
@@ -9479,15 +9479,15 @@
         <v>1</v>
       </c>
       <c r="B89" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C89">
-        <f>(G89=I89)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F89" t="s">
@@ -9517,15 +9517,15 @@
         <v>1</v>
       </c>
       <c r="B90" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C90">
-        <f>(G90=I90)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F90" t="s">
@@ -9564,15 +9564,15 @@
         <v>1</v>
       </c>
       <c r="B91" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C91">
-        <f>(G91=I91)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F91" t="s">
@@ -9611,15 +9611,15 @@
         <v>1</v>
       </c>
       <c r="B92" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C92">
-        <f>(G92=I92)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F92" t="s">
@@ -9649,15 +9649,15 @@
         <v>1</v>
       </c>
       <c r="B93" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C93">
-        <f>(G93=I93)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F93" t="s">
@@ -9687,15 +9687,15 @@
         <v>1</v>
       </c>
       <c r="B94" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C94">
-        <f>(G94=I94)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F94" t="s">
@@ -9725,15 +9725,15 @@
         <v>1</v>
       </c>
       <c r="B95" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C95">
-        <f>(G95=I95)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F95" t="s">
@@ -9763,15 +9763,15 @@
         <v>1</v>
       </c>
       <c r="B96" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C96">
-        <f>(G96=I96)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F96" t="s">
@@ -9810,15 +9810,15 @@
         <v>1</v>
       </c>
       <c r="B97" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C97">
-        <f>(G97=I97)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F97" t="s">
@@ -9857,15 +9857,15 @@
         <v>1</v>
       </c>
       <c r="B98" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C98">
-        <f>(G98=I98)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F98" t="s">
@@ -9895,15 +9895,15 @@
         <v>1</v>
       </c>
       <c r="B99" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C99">
-        <f>(G99=I99)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F99" t="s">
@@ -9933,15 +9933,15 @@
         <v>1</v>
       </c>
       <c r="B100" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C100">
-        <f>(G100=I100)+0</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F100" t="s">
@@ -9971,15 +9971,15 @@
         <v>1</v>
       </c>
       <c r="B101" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C101">
-        <f>(G101=I101)+0</f>
+        <f t="shared" ref="C101:C132" si="8">(G101=I101)+0</f>
         <v>1</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F101" t="s">
@@ -10009,15 +10009,15 @@
         <v>1</v>
       </c>
       <c r="B102" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C102">
-        <f>(G102=I102)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F102" t="s">
@@ -10047,15 +10047,15 @@
         <v>1</v>
       </c>
       <c r="B103" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C103">
-        <f>(G103=I103)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F103" t="s">
@@ -10085,15 +10085,15 @@
         <v>1</v>
       </c>
       <c r="B104" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C104">
-        <f>(G104=I104)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F104" t="s">
@@ -10123,15 +10123,15 @@
         <v>1</v>
       </c>
       <c r="B105" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C105">
-        <f>(G105=I105)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F105" t="s">
@@ -10161,15 +10161,15 @@
         <v>1</v>
       </c>
       <c r="B106" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C106">
-        <f>(G106=I106)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E106">
@@ -10211,15 +10211,15 @@
         <v>1</v>
       </c>
       <c r="B107" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C107">
-        <f>(G107=I107)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F107" t="s">
@@ -10249,15 +10249,15 @@
         <v>1</v>
       </c>
       <c r="B108" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C108">
-        <f>(G108=I108)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F108" t="s">
@@ -10287,15 +10287,15 @@
         <v>0</v>
       </c>
       <c r="B109" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C109">
-        <f>(G109=I109)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F109" t="s">
@@ -10328,15 +10328,15 @@
         <v>1</v>
       </c>
       <c r="B110" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C110">
-        <f>(G110=I110)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E110">
@@ -10378,15 +10378,15 @@
         <v>1</v>
       </c>
       <c r="B111" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C111">
-        <f>(G111=I111)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E111">
@@ -10428,15 +10428,15 @@
         <v>1</v>
       </c>
       <c r="B112" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C112">
-        <f>(G112=I112)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F112" t="s">
@@ -10466,15 +10466,15 @@
         <v>1</v>
       </c>
       <c r="B113" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C113">
-        <f>(G113=I113)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E113">
@@ -10510,15 +10510,15 @@
         <v>1</v>
       </c>
       <c r="B114" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C114">
-        <f>(G114=I114)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F114" t="s">
@@ -10548,15 +10548,15 @@
         <v>1</v>
       </c>
       <c r="B115" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C115">
-        <f>(G115=I115)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F115" t="s">
@@ -10586,15 +10586,15 @@
         <v>1</v>
       </c>
       <c r="B116" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C116">
-        <f>(G116=I116)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E116">
@@ -10636,15 +10636,15 @@
         <v>1</v>
       </c>
       <c r="B117" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C117">
-        <f>(G117=I117)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F117" t="s">
@@ -10674,15 +10674,15 @@
         <v>1</v>
       </c>
       <c r="B118" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C118">
-        <f>(G118=I118)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E118">
@@ -10724,15 +10724,15 @@
         <v>1</v>
       </c>
       <c r="B119" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C119">
-        <f>(G119=I119)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F119" t="s">
@@ -10771,15 +10771,15 @@
         <v>1</v>
       </c>
       <c r="B120" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C120">
-        <f>(G120=I120)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E120">
@@ -10821,15 +10821,15 @@
         <v>1</v>
       </c>
       <c r="B121" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C121">
-        <f>(G121=I121)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E121">
@@ -10871,15 +10871,15 @@
         <v>1</v>
       </c>
       <c r="B122" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C122">
-        <f>(G122=I122)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F122" t="s">
@@ -10909,15 +10909,15 @@
         <v>1</v>
       </c>
       <c r="B123" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C123">
-        <f>(G123=I123)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F123" t="s">
@@ -10947,15 +10947,15 @@
         <v>1</v>
       </c>
       <c r="B124" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C124">
-        <f>(G124=I124)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F124" t="s">
@@ -10985,15 +10985,15 @@
         <v>1</v>
       </c>
       <c r="B125" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C125">
-        <f>(G125=I125)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F125" t="s">
@@ -11032,15 +11032,15 @@
         <v>1</v>
       </c>
       <c r="B126" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C126">
-        <f>(G126=I126)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F126" t="s">
@@ -11070,15 +11070,15 @@
         <v>1</v>
       </c>
       <c r="B127" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C127">
-        <f>(G127=I127)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F127" t="s">
@@ -11108,15 +11108,15 @@
         <v>1</v>
       </c>
       <c r="B128" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C128">
-        <f>(G128=I128)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F128" t="s">
@@ -11146,15 +11146,15 @@
         <v>1</v>
       </c>
       <c r="B129" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C129">
-        <f>(G129=I129)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E129">
@@ -11190,15 +11190,15 @@
         <v>1</v>
       </c>
       <c r="B130" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="C130">
-        <f>(G130=I130)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F130" t="s">
@@ -11228,15 +11228,15 @@
         <v>1</v>
       </c>
       <c r="B131" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C131">
-        <f>(G131=I131)+0</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="D131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F131" t="s">
@@ -11275,15 +11275,15 @@
         <v>1</v>
       </c>
       <c r="B132" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C132">
-        <f>(G132=I132)+0</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="E132">
@@ -11319,15 +11319,15 @@
         <v>1</v>
       </c>
       <c r="B133" t="b">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="C133">
-        <f>(G133=I133)+0</f>
+        <f t="shared" ref="C133:C164" si="9">(G133=I133)+0</f>
         <v>1</v>
       </c>
       <c r="D133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F133" t="s">
@@ -11366,15 +11366,15 @@
         <v>1</v>
       </c>
       <c r="B134" t="b">
-        <f t="shared" ref="B134:B197" si="5">F134="en[SEP]"</f>
+        <f t="shared" ref="B134:B197" si="10">F134="en[SEP]"</f>
         <v>0</v>
       </c>
       <c r="C134">
-        <f>(G134=I134)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D134">
-        <f t="shared" ref="D134:D197" si="6">1-(C134=A134)</f>
+        <f t="shared" ref="D134:D197" si="11">1-(C134=A134)</f>
         <v>1</v>
       </c>
       <c r="E134">
@@ -11416,15 +11416,15 @@
         <v>1</v>
       </c>
       <c r="B135" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C135">
-        <f>(G135=I135)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E135">
@@ -11466,15 +11466,15 @@
         <v>1</v>
       </c>
       <c r="B136" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C136">
-        <f>(G136=I136)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F136" t="s">
@@ -11504,15 +11504,15 @@
         <v>1</v>
       </c>
       <c r="B137" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C137">
-        <f>(G137=I137)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E137">
@@ -11554,15 +11554,15 @@
         <v>1</v>
       </c>
       <c r="B138" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C138">
-        <f>(G138=I138)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F138" t="s">
@@ -11592,15 +11592,15 @@
         <v>1</v>
       </c>
       <c r="B139" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C139">
-        <f>(G139=I139)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F139" t="s">
@@ -11630,15 +11630,15 @@
         <v>1</v>
       </c>
       <c r="B140" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C140">
-        <f>(G140=I140)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F140" t="s">
@@ -11668,15 +11668,15 @@
         <v>1</v>
       </c>
       <c r="B141" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C141">
-        <f>(G141=I141)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F141" t="s">
@@ -11706,15 +11706,15 @@
         <v>1</v>
       </c>
       <c r="B142" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C142">
-        <f>(G142=I142)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F142" t="s">
@@ -11744,15 +11744,15 @@
         <v>1</v>
       </c>
       <c r="B143" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C143">
-        <f>(G143=I143)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F143" t="s">
@@ -11782,15 +11782,15 @@
         <v>1</v>
       </c>
       <c r="B144" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C144">
-        <f>(G144=I144)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F144" t="s">
@@ -11820,15 +11820,15 @@
         <v>1</v>
       </c>
       <c r="B145" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C145">
-        <f>(G145=I145)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E145">
@@ -11870,15 +11870,15 @@
         <v>1</v>
       </c>
       <c r="B146" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C146">
-        <f>(G146=I146)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F146" t="s">
@@ -11917,15 +11917,15 @@
         <v>1</v>
       </c>
       <c r="B147" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C147">
-        <f>(G147=I147)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E147">
@@ -11967,15 +11967,15 @@
         <v>1</v>
       </c>
       <c r="B148" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C148">
-        <f>(G148=I148)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F148" t="s">
@@ -12005,15 +12005,15 @@
         <v>1</v>
       </c>
       <c r="B149" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C149">
-        <f>(G149=I149)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E149">
@@ -12055,15 +12055,15 @@
         <v>1</v>
       </c>
       <c r="B150" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C150">
-        <f>(G150=I150)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F150" t="s">
@@ -12093,15 +12093,15 @@
         <v>1</v>
       </c>
       <c r="B151" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C151">
-        <f>(G151=I151)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F151" t="s">
@@ -12131,15 +12131,15 @@
         <v>1</v>
       </c>
       <c r="B152" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C152">
-        <f>(G152=I152)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F152" t="s">
@@ -12169,15 +12169,15 @@
         <v>1</v>
       </c>
       <c r="B153" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C153">
-        <f>(G153=I153)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F153" t="s">
@@ -12207,15 +12207,15 @@
         <v>1</v>
       </c>
       <c r="B154" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C154">
-        <f>(G154=I154)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F154" t="s">
@@ -12245,15 +12245,15 @@
         <v>1</v>
       </c>
       <c r="B155" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C155">
-        <f>(G155=I155)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F155" t="s">
@@ -12292,15 +12292,15 @@
         <v>1</v>
       </c>
       <c r="B156" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C156">
-        <f>(G156=I156)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F156" t="s">
@@ -12339,15 +12339,15 @@
         <v>1</v>
       </c>
       <c r="B157" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C157">
-        <f>(G157=I157)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F157" t="s">
@@ -12377,15 +12377,15 @@
         <v>1</v>
       </c>
       <c r="B158" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C158">
-        <f>(G158=I158)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F158" t="s">
@@ -12415,15 +12415,15 @@
         <v>1</v>
       </c>
       <c r="B159" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C159">
-        <f>(G159=I159)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F159" t="s">
@@ -12453,15 +12453,15 @@
         <v>1</v>
       </c>
       <c r="B160" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C160">
-        <f>(G160=I160)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E160">
@@ -12503,15 +12503,15 @@
         <v>1</v>
       </c>
       <c r="B161" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C161">
-        <f>(G161=I161)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F161" t="s">
@@ -12550,15 +12550,15 @@
         <v>1</v>
       </c>
       <c r="B162" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C162">
-        <f>(G162=I162)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F162" t="s">
@@ -12597,15 +12597,15 @@
         <v>1</v>
       </c>
       <c r="B163" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C163">
-        <f>(G163=I163)+0</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E163">
@@ -12647,15 +12647,15 @@
         <v>1</v>
       </c>
       <c r="B164" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C164">
-        <f>(G164=I164)+0</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F164" t="s">
@@ -12685,15 +12685,15 @@
         <v>1</v>
       </c>
       <c r="B165" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C165">
-        <f>(G165=I165)+0</f>
+        <f t="shared" ref="C165:C196" si="12">(G165=I165)+0</f>
         <v>1</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F165" t="s">
@@ -12723,15 +12723,15 @@
         <v>1</v>
       </c>
       <c r="B166" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C166">
-        <f>(G166=I166)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F166" t="s">
@@ -12761,15 +12761,15 @@
         <v>1</v>
       </c>
       <c r="B167" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C167">
-        <f>(G167=I167)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F167" t="s">
@@ -12799,15 +12799,15 @@
         <v>1</v>
       </c>
       <c r="B168" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C168">
-        <f>(G168=I168)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F168" t="s">
@@ -12837,15 +12837,15 @@
         <v>1</v>
       </c>
       <c r="B169" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C169">
-        <f>(G169=I169)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E169">
@@ -12887,15 +12887,15 @@
         <v>1</v>
       </c>
       <c r="B170" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C170">
-        <f>(G170=I170)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F170" t="s">
@@ -12934,15 +12934,15 @@
         <v>1</v>
       </c>
       <c r="B171" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C171">
-        <f>(G171=I171)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F171" t="s">
@@ -12981,15 +12981,15 @@
         <v>1</v>
       </c>
       <c r="B172" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C172">
-        <f>(G172=I172)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E172">
@@ -13031,15 +13031,15 @@
         <v>1</v>
       </c>
       <c r="B173" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C173">
-        <f>(G173=I173)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F173" t="s">
@@ -13069,15 +13069,15 @@
         <v>1</v>
       </c>
       <c r="B174" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C174">
-        <f>(G174=I174)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F174" t="s">
@@ -13107,15 +13107,15 @@
         <v>1</v>
       </c>
       <c r="B175" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C175">
-        <f>(G175=I175)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F175" t="s">
@@ -13145,15 +13145,15 @@
         <v>1</v>
       </c>
       <c r="B176" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C176">
-        <f>(G176=I176)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E176">
@@ -13195,15 +13195,15 @@
         <v>1</v>
       </c>
       <c r="B177" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C177">
-        <f>(G177=I177)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E177">
@@ -13245,15 +13245,15 @@
         <v>1</v>
       </c>
       <c r="B178" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C178">
-        <f>(G178=I178)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F178" t="s">
@@ -13283,15 +13283,15 @@
         <v>1</v>
       </c>
       <c r="B179" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C179">
-        <f>(G179=I179)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F179" t="s">
@@ -13321,15 +13321,15 @@
         <v>1</v>
       </c>
       <c r="B180" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C180">
-        <f>(G180=I180)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F180" t="s">
@@ -13359,15 +13359,15 @@
         <v>1</v>
       </c>
       <c r="B181" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C181">
-        <f>(G181=I181)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F181" t="s">
@@ -13406,15 +13406,15 @@
         <v>1</v>
       </c>
       <c r="B182" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C182">
-        <f>(G182=I182)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F182" t="s">
@@ -13444,15 +13444,15 @@
         <v>1</v>
       </c>
       <c r="B183" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C183">
-        <f>(G183=I183)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E183">
@@ -13494,15 +13494,15 @@
         <v>1</v>
       </c>
       <c r="B184" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C184">
-        <f>(G184=I184)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F184" t="s">
@@ -13541,15 +13541,15 @@
         <v>1</v>
       </c>
       <c r="B185" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C185">
-        <f>(G185=I185)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F185" t="s">
@@ -13579,15 +13579,15 @@
         <v>1</v>
       </c>
       <c r="B186" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C186">
-        <f>(G186=I186)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F186" t="s">
@@ -13617,15 +13617,15 @@
         <v>1</v>
       </c>
       <c r="B187" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C187">
-        <f>(G187=I187)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F187" t="s">
@@ -13655,15 +13655,15 @@
         <v>1</v>
       </c>
       <c r="B188" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C188">
-        <f>(G188=I188)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F188" t="s">
@@ -13693,15 +13693,15 @@
         <v>1</v>
       </c>
       <c r="B189" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C189">
-        <f>(G189=I189)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F189" t="s">
@@ -13731,15 +13731,15 @@
         <v>1</v>
       </c>
       <c r="B190" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C190">
-        <f>(G190=I190)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F190" t="s">
@@ -13778,15 +13778,15 @@
         <v>1</v>
       </c>
       <c r="B191" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C191">
-        <f>(G191=I191)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F191" t="s">
@@ -13816,15 +13816,15 @@
         <v>1</v>
       </c>
       <c r="B192" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C192">
-        <f>(G192=I192)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="E192">
@@ -13866,15 +13866,15 @@
         <v>0</v>
       </c>
       <c r="B193" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C193">
-        <f>(G193=I193)+0</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F193" t="s">
@@ -13907,15 +13907,15 @@
         <v>1</v>
       </c>
       <c r="B194" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C194">
-        <f>(G194=I194)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F194" t="s">
@@ -13945,15 +13945,15 @@
         <v>1</v>
       </c>
       <c r="B195" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C195">
-        <f>(G195=I195)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D195">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F195" t="s">
@@ -13992,15 +13992,15 @@
         <v>1</v>
       </c>
       <c r="B196" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C196">
-        <f>(G196=I196)+0</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F196" t="s">
@@ -14030,15 +14030,15 @@
         <v>1</v>
       </c>
       <c r="B197" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="C197">
-        <f>(G197=I197)+0</f>
+        <f t="shared" ref="C197:C204" si="13">(G197=I197)+0</f>
         <v>1</v>
       </c>
       <c r="D197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F197" t="s">
@@ -14077,15 +14077,15 @@
         <v>1</v>
       </c>
       <c r="B198" t="b">
-        <f t="shared" ref="B198:B204" si="7">F198="en[SEP]"</f>
+        <f t="shared" ref="B198:B204" si="14">F198="en[SEP]"</f>
         <v>1</v>
       </c>
       <c r="C198">
-        <f>(G198=I198)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D198">
-        <f t="shared" ref="D198:D204" si="8">1-(C198=A198)</f>
+        <f t="shared" ref="D198:D204" si="15">1-(C198=A198)</f>
         <v>0</v>
       </c>
       <c r="F198" t="s">
@@ -14115,15 +14115,15 @@
         <v>1</v>
       </c>
       <c r="B199" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C199">
-        <f>(G199=I199)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F199" t="s">
@@ -14153,15 +14153,15 @@
         <v>1</v>
       </c>
       <c r="B200" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C200">
-        <f>(G200=I200)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F200" t="s">
@@ -14191,15 +14191,15 @@
         <v>1</v>
       </c>
       <c r="B201" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C201">
-        <f>(G201=I201)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F201" t="s">
@@ -14229,15 +14229,15 @@
         <v>1</v>
       </c>
       <c r="B202" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="C202">
-        <f>(G202=I202)+0</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="E202">
@@ -14279,15 +14279,15 @@
         <v>1</v>
       </c>
       <c r="B203" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C203">
-        <f>(G203=I203)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F203" t="s">
@@ -14314,15 +14314,15 @@
         <v>1</v>
       </c>
       <c r="B204" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="C204">
-        <f>(G204=I204)+0</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="D204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="F204" t="s">
